--- a/document/Table Schema.xlsx
+++ b/document/Table Schema.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\math-master\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\math-master\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11445" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11443" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="116">
   <si>
     <t>欄位名稱 (Column)</t>
   </si>
@@ -126,9 +126,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>gemini_prompt</t>
-  </si>
-  <si>
     <t>consecutive_correct_required</t>
   </si>
   <si>
@@ -560,10 +557,6 @@
   </si>
   <si>
     <t>在同一章節內的顯示順序。</t>
-  </si>
-  <si>
-    <t>skill_curriculum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>系統名稱</t>
@@ -692,7 +685,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Grade</t>
+    <t>普高課程值建議設為易-&gt;難 ,1-2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -704,7 +697,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>課綱。普高</t>
+      <t>所屬冊別。如</t>
     </r>
     <r>
       <rPr>
@@ -713,8 +706,15 @@
         <rFont val="Google Sans Text"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">general </t>
-    </r>
+      <t>B1,B2,C1,C2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>diffcult_level</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -723,7 +723,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>技高</t>
+      <t>課綱。普高</t>
     </r>
     <r>
       <rPr>
@@ -732,15 +732,8 @@
         <rFont val="Google Sans Text"/>
         <family val="2"/>
       </rPr>
-      <t>vocational</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>普高課程值建議設為易-&gt;難 ,1-2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve">general </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -749,7 +742,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>所屬冊別。如</t>
+      <t>技高</t>
     </r>
     <r>
       <rPr>
@@ -758,12 +751,106 @@
         <rFont val="Google Sans Text"/>
         <family val="2"/>
       </rPr>
-      <t>B1,B2,C1,C2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>diffcult_level</t>
+      <t>vocational</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能類別 如三角函數 向量 指數與對數等</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>題目類型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Google Sans Text"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>例如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Google Sans Text"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: text </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Google Sans Text"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> handwriting)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>skills_info</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_curriculum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemini_prompt</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -771,7 +858,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -952,13 +1039,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF444746"/>
-      <name val="Google Sans Text"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF0A0A0A"/>
       <name val="Google Sans Text"/>
       <family val="2"/>
     </font>
@@ -1012,7 +1092,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1085,20 +1165,17 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1389,44 +1466,44 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.75"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="27.625" customWidth="1"/>
+    <col min="1" max="1" width="6.23046875" customWidth="1"/>
+    <col min="2" max="2" width="14.61328125" customWidth="1"/>
+    <col min="3" max="3" width="21.765625" customWidth="1"/>
+    <col min="4" max="4" width="15.23046875" customWidth="1"/>
+    <col min="5" max="5" width="27.61328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="25"/>
+      <c r="A1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="26"/>
       <c r="C1" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="32.15">
+      <c r="A2" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="32.25">
-      <c r="A2" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="48.75" customHeight="1">
       <c r="A3" s="1">
@@ -1436,27 +1513,27 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" ht="48.75" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="27"/>
+      <c r="D4" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" ht="48.75" customHeight="1">
       <c r="A5" s="1">
@@ -1466,27 +1543,27 @@
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="28"/>
+        <v>97</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" ht="48.75" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1510,12 +1587,12 @@
       <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.75"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="1" max="1" width="19.4609375" customWidth="1"/>
+    <col min="2" max="2" width="14.3828125" customWidth="1"/>
+    <col min="3" max="3" width="16.61328125" customWidth="1"/>
+    <col min="4" max="4" width="41.3828125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="38.25" customHeight="1">
@@ -1523,24 +1600,24 @@
         <v>21</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="38.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -1641,11 +1718,11 @@
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.75"/>
   <cols>
-    <col min="1" max="1" width="27.75" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="27.765625" customWidth="1"/>
+    <col min="2" max="2" width="18.3828125" customWidth="1"/>
+    <col min="3" max="3" width="19.15234375" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1654,24 +1731,24 @@
         <v>21</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="38.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" ht="52.5" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -1698,21 +1775,21 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.5" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.5" customHeight="1">
@@ -1723,71 +1800,71 @@
         <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="31.5" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="31.5" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="31.5" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.5" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>19</v>
@@ -1796,7 +1873,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1810,17 +1887,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.75"/>
   <cols>
-    <col min="1" max="1" width="27.75" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="27.765625" customWidth="1"/>
+    <col min="2" max="2" width="18.3828125" customWidth="1"/>
+    <col min="3" max="3" width="19.15234375" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1829,24 +1906,24 @@
         <v>21</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="38.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" ht="52.5" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -1870,10 +1947,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27.75" customHeight="1">
@@ -1884,10 +1961,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1">
@@ -1898,80 +1975,108 @@
         <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27.75" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.75" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27.75" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27.75" customHeight="1">
+      <c r="A10" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27.75" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27.75" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27.75" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1988,14 +2093,14 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A4" sqref="A4:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.75"/>
   <cols>
-    <col min="1" max="1" width="27.75" customWidth="1"/>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="27.765625" customWidth="1"/>
+    <col min="2" max="2" width="21.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.15234375" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2004,24 +2109,24 @@
         <v>21</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="38.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" ht="52.5" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -2048,7 +2153,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1">
@@ -2059,127 +2164,127 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1">
       <c r="A6" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>106</v>
+      <c r="A7" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="39" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.15" customHeight="1">
       <c r="A8" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" customHeight="1">
       <c r="A9" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24" customHeight="1">
       <c r="A10" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="24" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>19</v>
@@ -2188,7 +2293,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
